--- a/hardware/bom/HF-Sim-Ver2b1-BOM.xlsx
+++ b/hardware/bom/HF-Sim-Ver2b1-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lafleur/Desktop/HF-Sim/HFSimulator-GitHub/HFSimulator/hardware/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4624AFB-B205-084C-9686-CCD0491A3215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D21762-C2DC-6040-9755-002995746B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="4800" windowWidth="34560" windowHeight="25020" xr2:uid="{35B0C8ED-A279-9C42-AD9A-CC25C80726CA}"/>
   </bookViews>
@@ -952,6 +952,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FD3AFD-7FEC-C549-BA29-E5ABB4436269}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="113" workbookViewId="0">
@@ -2466,6 +2469,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="47" fitToHeight="6" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>